--- a/xlsx/拉丁裔人_intext.xlsx
+++ b/xlsx/拉丁裔人_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>義大利半島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_拉丁裔人</t>
+    <t>义大利半岛</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_拉丁裔人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E4%BA%BA</t>
   </si>
   <si>
-    <t>印歐人</t>
+    <t>印欧人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>羅馬文化</t>
+    <t>罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E4%BA%BA</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>羅馬尼亞人</t>
+    <t>罗马尼亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
